--- a/data/published/2020_Colloff_Flowe_Winsor_etal/testOutput.xlsx
+++ b/data/published/2020_Colloff_Flowe_Winsor_etal/testOutput.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1271,6 +1271,9 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1329,6 +1332,9 @@
       <c r="R11" t="n">
         <v>1</v>
       </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1387,6 +1393,9 @@
       <c r="R12" t="n">
         <v>2.309782094162786</v>
       </c>
+      <c r="S12" t="n">
+        <v>2.391048198037748</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1445,6 +1454,9 @@
       <c r="R13" t="n">
         <v>1</v>
       </c>
+      <c r="S13" t="n">
+        <v>1.529901383525567</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1503,6 +1515,9 @@
       <c r="R14" t="n">
         <v>0.1</v>
       </c>
+      <c r="S14" t="n">
+        <v>-0.06158374816301929</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1561,6 +1576,9 @@
       <c r="R15" t="n">
         <v>0.1</v>
       </c>
+      <c r="S15" t="n">
+        <v>-0.06158374816301929</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1619,6 +1637,9 @@
       <c r="R16" t="n">
         <v>1.16336773060928</v>
       </c>
+      <c r="S16" t="n">
+        <v>1.160087863853805</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1677,6 +1698,9 @@
       <c r="R17" t="n">
         <v>1.235808885871184</v>
       </c>
+      <c r="S17" t="n">
+        <v>1.231283191936991</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1735,6 +1759,9 @@
       <c r="R18" t="n">
         <v>1.62888336782595</v>
       </c>
+      <c r="S18" t="n">
+        <v>1.637451109109422</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1793,6 +1820,9 @@
       <c r="R19" t="n">
         <v>3.055505225219887</v>
       </c>
+      <c r="S19" t="n">
+        <v>3.146844050165727</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1851,6 +1881,9 @@
       <c r="R20" t="n">
         <v>5.422482728184374</v>
       </c>
+      <c r="S20" t="n">
+        <v>5.680878344533673</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1979,6 +2012,9 @@
       <c r="R31" t="n">
         <v>651</v>
       </c>
+      <c r="S31" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1987,55 +2023,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.191991303</v>
+        <v>101.809488558</v>
       </c>
       <c r="C32" t="n">
-        <v>168.2498140219999</v>
+        <v>161.817944822</v>
       </c>
       <c r="D32" t="n">
-        <v>118.8554714320001</v>
+        <v>116.464285007</v>
       </c>
       <c r="E32" t="n">
-        <v>172.8760538189999</v>
+        <v>169.800406674</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6777776420001</v>
+        <v>134.699069528</v>
       </c>
       <c r="G32" t="n">
-        <v>501.8078884429999</v>
+        <v>473.537694772</v>
       </c>
       <c r="H32" t="n">
-        <v>70.36127841999996</v>
+        <v>67.42791133499986</v>
       </c>
       <c r="I32" t="n">
-        <v>60.81529583799988</v>
+        <v>58.54798157100004</v>
       </c>
       <c r="J32" t="n">
-        <v>105.7100519919998</v>
+        <v>100.419380647</v>
       </c>
       <c r="K32" t="n">
-        <v>192.0494360469997</v>
+        <v>177.740926278</v>
       </c>
       <c r="L32" t="n">
-        <v>149.9863991730003</v>
+        <v>136.3318007939999</v>
       </c>
       <c r="M32" t="n">
-        <v>582.6047865629998</v>
+        <v>528.9777407750003</v>
       </c>
       <c r="N32" t="n">
-        <v>96.07336409999971</v>
+        <v>90.44575723599974</v>
       </c>
       <c r="O32" t="n">
-        <v>178.5318641479998</v>
+        <v>166.885690393</v>
       </c>
       <c r="P32" t="n">
-        <v>107.8559219190001</v>
+        <v>100.5118735900001</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.5306349310003</v>
+        <v>201.939431191</v>
       </c>
       <c r="R32" t="n">
-        <v>311.2135222870002</v>
+        <v>272.4740447959998</v>
+      </c>
+      <c r="S32" t="n">
+        <v>220.9807230359997</v>
       </c>
     </row>
     <row r="33">
@@ -2095,6 +2134,9 @@
       <c r="R33" t="n">
         <v>8.925645990218189</v>
       </c>
+      <c r="S33" t="n">
+        <v>6.679512131347471</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2153,6 +2195,9 @@
       <c r="R34" t="n">
         <v>9</v>
       </c>
+      <c r="S34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2211,6 +2256,9 @@
       <c r="R35" t="n">
         <v>0.9917384433575767</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.9542160187639245</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -2276,6 +2324,9 @@
       <c r="R37" t="n">
         <v>640</v>
       </c>
+      <c r="S37" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2334,6 +2385,9 @@
       <c r="R38" t="n">
         <v>311</v>
       </c>
+      <c r="S38" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2392,6 +2446,9 @@
       <c r="R39" t="n">
         <v>329</v>
       </c>
+      <c r="S39" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2450,6 +2507,9 @@
       <c r="R40" t="n">
         <v>0.547112462006079</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.547112462006079</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2508,6 +2568,9 @@
       <c r="R41" t="n">
         <v>0.05627009646302251</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.05627009646302251</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2566,6 +2629,9 @@
       <c r="R42" t="n">
         <v>1.705247644647274</v>
       </c>
+      <c r="S42" t="n">
+        <v>1.705247644647274</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2622,6 +2688,9 @@
         <v>0.021403240957212</v>
       </c>
       <c r="R43" t="n">
+        <v>0.021403240957212</v>
+      </c>
+      <c r="S43" t="n">
         <v>0.021403240957212</v>
       </c>
     </row>
